--- a/Data/EC/NIT-9012646168.xlsx
+++ b/Data/EC/NIT-9012646168.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C742090D-7E05-41A0-988A-E531EE227B40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{44D8ADB2-92EC-4FA4-8836-95D607CAF4FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E833BC2B-8383-42E2-BAD9-5173C10274CF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F887B87D-B95A-46B5-BA63-F6763421D3A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,127 +65,127 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1143362651</t>
+  </si>
+  <si>
+    <t>CARLOS HUMBERTO VILLA MERCADO</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
     <t>1143380298</t>
   </si>
   <si>
     <t>ESTEBAN DARIO BARBOZA PRIMERA</t>
   </si>
   <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
     <t>2012</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>1143362651</t>
-  </si>
-  <si>
-    <t>CARLOS HUMBERTO VILLA MERCADO</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2312</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -229,7 +229,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -599,7 +599,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B414BCF1-7036-66CF-ACE6-174F766C4C4F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2E6DE4C-2CB5-DEFF-F872-EA0E87E09019}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -950,28 +950,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CC30A66-5853-4B77-97D6-D5495CB602F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8576CE40-90C4-42F9-84BB-4822C3223E6A}">
   <dimension ref="B2:J62"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
@@ -984,7 +984,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -995,7 +995,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -1006,7 +1006,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -1017,8 +1017,8 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1"/>
-    <row r="7" spans="2:10">
+    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>51</v>
       </c>
@@ -1033,8 +1033,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="9" spans="2:10">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -1049,8 +1049,8 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="11" spans="2:10">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
         <v>52</v>
       </c>
@@ -1065,8 +1065,8 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="13" spans="2:10">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
         <v>53</v>
       </c>
@@ -1085,7 +1085,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1114,7 +1114,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1128,16 +1128,16 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>230066</v>
+        <v>580000</v>
       </c>
       <c r="G16" s="18">
-        <v>14500000</v>
+        <v>17127677</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1151,16 +1151,16 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>406000</v>
+        <v>580000</v>
       </c>
       <c r="G17" s="18">
-        <v>14500000</v>
+        <v>17127677</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
@@ -1174,16 +1174,16 @@
         <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>406000</v>
+        <v>580000</v>
       </c>
       <c r="G18" s="18">
-        <v>14500000</v>
+        <v>17127677</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
@@ -1197,16 +1197,16 @@
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>406000</v>
+        <v>580000</v>
       </c>
       <c r="G19" s="18">
-        <v>14500000</v>
+        <v>17127677</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
@@ -1220,27 +1220,27 @@
         <v>17</v>
       </c>
       <c r="F20" s="18">
-        <v>580000</v>
+        <v>257133</v>
       </c>
       <c r="G20" s="18">
-        <v>17127677</v>
+        <v>14500000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F21" s="18">
         <v>406000</v>
@@ -1252,7 +1252,7 @@
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
@@ -1263,30 +1263,30 @@
         <v>16</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F22" s="18">
-        <v>580000</v>
+        <v>406000</v>
       </c>
       <c r="G22" s="18">
-        <v>17127677</v>
+        <v>14500000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F23" s="18">
         <v>406000</v>
@@ -1298,7 +1298,7 @@
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
@@ -1309,30 +1309,30 @@
         <v>16</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F24" s="18">
-        <v>580000</v>
+        <v>406000</v>
       </c>
       <c r="G24" s="18">
-        <v>17127677</v>
+        <v>14500000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F25" s="18">
         <v>406000</v>
@@ -1344,18 +1344,18 @@
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F26" s="18">
         <v>406000</v>
@@ -1367,7 +1367,7 @@
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
@@ -1378,30 +1378,30 @@
         <v>16</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F27" s="18">
-        <v>580000</v>
+        <v>406000</v>
       </c>
       <c r="G27" s="18">
-        <v>17127677</v>
+        <v>14500000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F28" s="18">
         <v>406000</v>
@@ -1413,18 +1413,18 @@
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F29" s="18">
         <v>406000</v>
@@ -1436,18 +1436,18 @@
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F30" s="18">
         <v>406000</v>
@@ -1459,18 +1459,18 @@
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F31" s="18">
         <v>406000</v>
@@ -1482,18 +1482,18 @@
       <c r="I31" s="19"/>
       <c r="J31" s="20"/>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F32" s="18">
         <v>406000</v>
@@ -1505,18 +1505,18 @@
       <c r="I32" s="19"/>
       <c r="J32" s="20"/>
     </row>
-    <row r="33" spans="2:10">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F33" s="18">
         <v>406000</v>
@@ -1528,18 +1528,18 @@
       <c r="I33" s="19"/>
       <c r="J33" s="20"/>
     </row>
-    <row r="34" spans="2:10">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F34" s="18">
         <v>406000</v>
@@ -1551,18 +1551,18 @@
       <c r="I34" s="19"/>
       <c r="J34" s="20"/>
     </row>
-    <row r="35" spans="2:10">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F35" s="18">
         <v>406000</v>
@@ -1574,18 +1574,18 @@
       <c r="I35" s="19"/>
       <c r="J35" s="20"/>
     </row>
-    <row r="36" spans="2:10">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F36" s="18">
         <v>406000</v>
@@ -1597,18 +1597,18 @@
       <c r="I36" s="19"/>
       <c r="J36" s="20"/>
     </row>
-    <row r="37" spans="2:10">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F37" s="18">
         <v>406000</v>
@@ -1620,18 +1620,18 @@
       <c r="I37" s="19"/>
       <c r="J37" s="20"/>
     </row>
-    <row r="38" spans="2:10">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F38" s="18">
         <v>406000</v>
@@ -1643,18 +1643,18 @@
       <c r="I38" s="19"/>
       <c r="J38" s="20"/>
     </row>
-    <row r="39" spans="2:10">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F39" s="18">
         <v>406000</v>
@@ -1666,18 +1666,18 @@
       <c r="I39" s="19"/>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="2:10">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F40" s="18">
         <v>406000</v>
@@ -1689,18 +1689,18 @@
       <c r="I40" s="19"/>
       <c r="J40" s="20"/>
     </row>
-    <row r="41" spans="2:10">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F41" s="18">
         <v>406000</v>
@@ -1712,18 +1712,18 @@
       <c r="I41" s="19"/>
       <c r="J41" s="20"/>
     </row>
-    <row r="42" spans="2:10">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F42" s="18">
         <v>406000</v>
@@ -1735,18 +1735,18 @@
       <c r="I42" s="19"/>
       <c r="J42" s="20"/>
     </row>
-    <row r="43" spans="2:10">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F43" s="18">
         <v>406000</v>
@@ -1758,18 +1758,18 @@
       <c r="I43" s="19"/>
       <c r="J43" s="20"/>
     </row>
-    <row r="44" spans="2:10">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F44" s="18">
         <v>406000</v>
@@ -1781,18 +1781,18 @@
       <c r="I44" s="19"/>
       <c r="J44" s="20"/>
     </row>
-    <row r="45" spans="2:10">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F45" s="18">
         <v>406000</v>
@@ -1804,18 +1804,18 @@
       <c r="I45" s="19"/>
       <c r="J45" s="20"/>
     </row>
-    <row r="46" spans="2:10">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F46" s="18">
         <v>406000</v>
@@ -1827,18 +1827,18 @@
       <c r="I46" s="19"/>
       <c r="J46" s="20"/>
     </row>
-    <row r="47" spans="2:10">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F47" s="18">
         <v>406000</v>
@@ -1850,18 +1850,18 @@
       <c r="I47" s="19"/>
       <c r="J47" s="20"/>
     </row>
-    <row r="48" spans="2:10">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F48" s="18">
         <v>406000</v>
@@ -1873,18 +1873,18 @@
       <c r="I48" s="19"/>
       <c r="J48" s="20"/>
     </row>
-    <row r="49" spans="2:10">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="F49" s="18">
         <v>406000</v>
@@ -1896,18 +1896,18 @@
       <c r="I49" s="19"/>
       <c r="J49" s="20"/>
     </row>
-    <row r="50" spans="2:10">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="F50" s="18">
         <v>406000</v>
@@ -1919,18 +1919,18 @@
       <c r="I50" s="19"/>
       <c r="J50" s="20"/>
     </row>
-    <row r="51" spans="2:10">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B51" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="F51" s="18">
         <v>406000</v>
@@ -1942,18 +1942,18 @@
       <c r="I51" s="19"/>
       <c r="J51" s="20"/>
     </row>
-    <row r="52" spans="2:10">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="F52" s="18">
         <v>406000</v>
@@ -1965,15 +1965,15 @@
       <c r="I52" s="19"/>
       <c r="J52" s="20"/>
     </row>
-    <row r="53" spans="2:10">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B53" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E53" s="16" t="s">
         <v>46</v>
@@ -1988,15 +1988,15 @@
       <c r="I53" s="19"/>
       <c r="J53" s="20"/>
     </row>
-    <row r="54" spans="2:10">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B54" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E54" s="16" t="s">
         <v>47</v>
@@ -2011,15 +2011,15 @@
       <c r="I54" s="19"/>
       <c r="J54" s="20"/>
     </row>
-    <row r="55" spans="2:10">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B55" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E55" s="16" t="s">
         <v>48</v>
@@ -2034,21 +2034,21 @@
       <c r="I55" s="19"/>
       <c r="J55" s="20"/>
     </row>
-    <row r="56" spans="2:10">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B56" s="21" t="s">
         <v>8</v>
       </c>
       <c r="C56" s="22" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D56" s="23" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E56" s="22" t="s">
         <v>49</v>
       </c>
       <c r="F56" s="24">
-        <v>257133</v>
+        <v>230066</v>
       </c>
       <c r="G56" s="24">
         <v>14500000</v>
@@ -2057,7 +2057,7 @@
       <c r="I56" s="25"/>
       <c r="J56" s="26"/>
     </row>
-    <row r="61" spans="2:10">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B61" s="32" t="s">
         <v>59</v>
       </c>
@@ -2068,7 +2068,7 @@
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
     </row>
-    <row r="62" spans="2:10">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B62" s="32" t="s">
         <v>58</v>
       </c>

--- a/Data/EC/NIT-9012646168.xlsx
+++ b/Data/EC/NIT-9012646168.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{44D8ADB2-92EC-4FA4-8836-95D607CAF4FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{337A21FB-68A6-4377-A7E3-6B6C1B46DCA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F887B87D-B95A-46B5-BA63-F6763421D3A2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2B63B64B-0DE5-4753-8BBB-83B368432F89}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,127 +65,127 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1143380298</t>
+  </si>
+  <si>
+    <t>ESTEBAN DARIO BARBOZA PRIMERA</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
     <t>1143362651</t>
   </si>
   <si>
     <t>CARLOS HUMBERTO VILLA MERCADO</t>
   </si>
   <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
     <t>2107</t>
   </si>
   <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>1143380298</t>
-  </si>
-  <si>
-    <t>ESTEBAN DARIO BARBOZA PRIMERA</t>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
   </si>
   <si>
     <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -284,7 +284,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -297,9 +299,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -499,23 +499,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -543,10 +543,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -599,7 +599,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2E6DE4C-2CB5-DEFF-F872-EA0E87E09019}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A30E65E6-8012-E754-C940-D4421E4F8B93}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -950,7 +950,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8576CE40-90C4-42F9-84BB-4822C3223E6A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35F98E0C-44AE-4AC4-B192-0EAED6A9201B}">
   <dimension ref="B2:J62"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1128,10 +1128,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>580000</v>
+        <v>230066</v>
       </c>
       <c r="G16" s="18">
-        <v>17127677</v>
+        <v>14500000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1151,10 +1151,10 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>580000</v>
+        <v>406000</v>
       </c>
       <c r="G17" s="18">
-        <v>17127677</v>
+        <v>14500000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1174,10 +1174,10 @@
         <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>580000</v>
+        <v>406000</v>
       </c>
       <c r="G18" s="18">
-        <v>17127677</v>
+        <v>14500000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1197,10 +1197,10 @@
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>580000</v>
+        <v>406000</v>
       </c>
       <c r="G19" s="18">
-        <v>17127677</v>
+        <v>14500000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1220,10 +1220,10 @@
         <v>17</v>
       </c>
       <c r="F20" s="18">
-        <v>257133</v>
+        <v>580000</v>
       </c>
       <c r="G20" s="18">
-        <v>14500000</v>
+        <v>17127677</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1234,13 +1234,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F21" s="18">
         <v>406000</v>
@@ -1263,13 +1263,13 @@
         <v>16</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F22" s="18">
-        <v>406000</v>
+        <v>580000</v>
       </c>
       <c r="G22" s="18">
-        <v>14500000</v>
+        <v>17127677</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1280,13 +1280,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
         <v>406000</v>
@@ -1309,13 +1309,13 @@
         <v>16</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
-        <v>406000</v>
+        <v>580000</v>
       </c>
       <c r="G24" s="18">
-        <v>14500000</v>
+        <v>17127677</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1326,13 +1326,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F25" s="18">
         <v>406000</v>
@@ -1355,13 +1355,13 @@
         <v>16</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F26" s="18">
-        <v>406000</v>
+        <v>580000</v>
       </c>
       <c r="G26" s="18">
-        <v>14500000</v>
+        <v>17127677</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1372,13 +1372,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F27" s="18">
         <v>406000</v>
@@ -1395,13 +1395,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F28" s="18">
         <v>406000</v>
@@ -1418,13 +1418,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F29" s="18">
         <v>406000</v>
@@ -1441,13 +1441,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F30" s="18">
         <v>406000</v>
@@ -1464,13 +1464,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F31" s="18">
         <v>406000</v>
@@ -1487,13 +1487,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F32" s="18">
         <v>406000</v>
@@ -1510,13 +1510,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F33" s="18">
         <v>406000</v>
@@ -1533,13 +1533,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F34" s="18">
         <v>406000</v>
@@ -1556,13 +1556,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F35" s="18">
         <v>406000</v>
@@ -1579,13 +1579,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F36" s="18">
         <v>406000</v>
@@ -1602,13 +1602,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F37" s="18">
         <v>406000</v>
@@ -1625,13 +1625,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F38" s="18">
         <v>406000</v>
@@ -1648,13 +1648,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F39" s="18">
         <v>406000</v>
@@ -1671,13 +1671,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F40" s="18">
         <v>406000</v>
@@ -1694,13 +1694,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F41" s="18">
         <v>406000</v>
@@ -1717,13 +1717,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F42" s="18">
         <v>406000</v>
@@ -1740,13 +1740,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F43" s="18">
         <v>406000</v>
@@ -1763,13 +1763,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F44" s="18">
         <v>406000</v>
@@ -1786,13 +1786,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F45" s="18">
         <v>406000</v>
@@ -1809,13 +1809,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F46" s="18">
         <v>406000</v>
@@ -1832,13 +1832,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F47" s="18">
         <v>406000</v>
@@ -1855,13 +1855,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F48" s="18">
         <v>406000</v>
@@ -1878,13 +1878,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="F49" s="18">
         <v>406000</v>
@@ -1901,13 +1901,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="F50" s="18">
         <v>406000</v>
@@ -1924,13 +1924,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="F51" s="18">
         <v>406000</v>
@@ -1947,13 +1947,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="F52" s="18">
         <v>406000</v>
@@ -1970,10 +1970,10 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E53" s="16" t="s">
         <v>46</v>
@@ -1993,10 +1993,10 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E54" s="16" t="s">
         <v>47</v>
@@ -2016,10 +2016,10 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E55" s="16" t="s">
         <v>48</v>
@@ -2039,16 +2039,16 @@
         <v>8</v>
       </c>
       <c r="C56" s="22" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D56" s="23" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E56" s="22" t="s">
         <v>49</v>
       </c>
       <c r="F56" s="24">
-        <v>230066</v>
+        <v>257133</v>
       </c>
       <c r="G56" s="24">
         <v>14500000</v>
